--- a/25.xlsx
+++ b/25.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project x\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42041AC8-FDF4-4A22-8512-861EEB87B0A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63A72C54-9D7C-4C7F-AA57-35D5CFD979F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5544DC2B-950F-44C8-91C4-9D86AE401F43}"/>
   </bookViews>
@@ -730,8 +730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37B0F3E3-3B6B-4C7A-87F4-22E9D8FF1706}">
   <dimension ref="A1:C605"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView tabSelected="1" topLeftCell="A464" workbookViewId="0">
+      <selection activeCell="B482" sqref="B482"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6003,10 +6003,10 @@
         <v>478</v>
       </c>
       <c r="B479" t="s">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="C479" t="s">
-        <v>2</v>
+        <v>28</v>
       </c>
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.3">
